--- a/Template/masterdata template.xlsx
+++ b/Template/masterdata template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Monitoring Piping\Timas-Monitoring-Piping-V4\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Monitoring Piping Fix\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83886D4-AF05-4189-B7B3-C8DC805E0331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9587FB61-D049-4915-A877-86A22AEE2F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoring Piping" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>NS</t>
   </si>
@@ -168,13 +168,61 @@
   </si>
   <si>
     <t>PK</t>
+  </si>
+  <si>
+    <t>QAQC AFI F/U DATE</t>
+  </si>
+  <si>
+    <t>QAQC AFI F/U NO</t>
+  </si>
+  <si>
+    <t>QAQC AFI F/U RES</t>
+  </si>
+  <si>
+    <t>QAQC VISUAL DATE</t>
+  </si>
+  <si>
+    <t>QAQC VISUAL NO</t>
+  </si>
+  <si>
+    <t>QAQC VISUAL RES</t>
+  </si>
+  <si>
+    <t>PPC CLAIM REPORT FABS 30%</t>
+  </si>
+  <si>
+    <t>PPC CLAIM REPORT INSTALL 60%</t>
+  </si>
+  <si>
+    <t>PPC CLAIM REPORT PUNCHLIST 10%</t>
+  </si>
+  <si>
+    <t>PPC CLAIM REPORT TOTAL</t>
+  </si>
+  <si>
+    <t>SUMMARY AFI</t>
+  </si>
+  <si>
+    <t>LAST PERIOD</t>
+  </si>
+  <si>
+    <t>THIS PERIOD</t>
+  </si>
+  <si>
+    <t>CUMM</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +236,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -278,10 +333,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,8 +357,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma 2 3" xfId="1" xr:uid="{813C939F-E119-4380-86A6-7B725323E78C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +653,7 @@
     <col min="8" max="38" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -706,6 +766,51 @@
         <v>28</v>
       </c>
       <c r="AL1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA1" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -760,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784585A2-FC55-422E-974D-DC5DED5F325A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Template/masterdata template.xlsx
+++ b/Template/masterdata template.xlsx
@@ -1340,10 +1340,8 @@
       <c r="AP2" s="11" t="n">
         <v>370</v>
       </c>
-      <c r="AQ2" s="11" t="inlineStr">
-        <is>
-          <t>011</t>
-        </is>
+      <c r="AQ2" s="11" t="n">
+        <v>11</v>
       </c>
       <c r="AS2" s="11" t="n">
         <v>50</v>
@@ -1365,6 +1363,19 @@
         <is>
           <t>SR 0001</t>
         </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Hawking</t>
+        </is>
+      </c>
+      <c r="BN2" t="n">
+        <v>5</v>
       </c>
       <c r="BQ2" t="n">
         <v>1</v>
@@ -1641,6 +1652,19 @@
           <t>SR 0001</t>
         </is>
       </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>Hawking</t>
+        </is>
+      </c>
+      <c r="BN3" t="n">
+        <v>60</v>
+      </c>
       <c r="BQ3" t="n">
         <v>1</v>
       </c>
@@ -1919,6 +1943,19 @@
           <t>SR 0001</t>
         </is>
       </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>Hawking</t>
+        </is>
+      </c>
+      <c r="BN4" t="n">
+        <v>4</v>
+      </c>
       <c r="BQ4" t="n">
         <v>1</v>
       </c>
@@ -2239,6 +2276,19 @@
           <t>SR 0001</t>
         </is>
       </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>Hawking</t>
+        </is>
+      </c>
+      <c r="BN5" t="n">
+        <v>60</v>
+      </c>
       <c r="BQ5" t="n">
         <v>5</v>
       </c>
@@ -2246,6 +2296,19 @@
         <is>
           <t>SR 0001</t>
         </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>Hawking</t>
+        </is>
+      </c>
+      <c r="BV5" t="n">
+        <v>5</v>
       </c>
       <c r="BY5" t="n">
         <v>1</v>
